--- a/triplet_output/fold2/train.xlsx
+++ b/triplet_output/fold2/train.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[('server . [SEP]', 'tidak dapat terkoneksi ke', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak dapat terkoneksi ke server', 'NEG')]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[('lapor video susah', 'susah . [SEP]', 'NEG')]</t>
+          <t>[('app', 'susah dipakai', 'NEG'), ('lapor', 'susah', 'NEG')]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak jelas . pencarian', 'NEG'), ('pencarian informasi produk lele', 'lelet banget . [SEP]', 'NEG')]</t>
+          <t>[('pencarian', 'lelet banget', 'NEG'), ('aplikasi', 'gak jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'tingkatkan terus aplikasinya', 'NEU')]</t>
+          <t>[('aplikasinya', 'tingkatkan terus aplikasinya', 'POS')]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'sangat baik . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat baik', 'POS')]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sangat bermanfaa . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat bermanfaa', 'POS')]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[('apk yg', 'tidak bermutu , gk', 'NEG')]</t>
+          <t>[('apk', 'gk bisa d buka untuk', 'NEG'), ('apk', 'tidak bermutu', 'NEG')]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('polri', 'top mark', 'POS')]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'membantu penduduk', 'POS')]</t>
+          <t>[('aplikasi', 'membantu penduduk dki untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('pengaduan', 'lama banget', 'NEG'), ('ubah', 'gak bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('loading', 'selalu muncul kalimat problem loading', 'NEG'), ('meminjam', 'tidak dapat memuat', 'NEG'), ('memuat', 'tidak dapat memuat', 'NEG'), ('memuat', 'tidak dapat memuat', 'NEG')]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[('pelayanan utk', 'puas sekali , krn', 'POS')]</t>
+          <t>[('pelayanan', 'cpt', 'POS')]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus sangat', 'POS'), ('aplikasi bagus', 'sangat membantu . . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'bagus sangat', 'POS'), ('aplikasi', 'sangat membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak bisa dibuka sudah', 'NEG'), ('masuk dan', 'tidak bisa masuk', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa dibuka sudah', 'NEG')]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[('aplikasi negara', 'sampah . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'sampah', 'NEG')]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'smart', 'POS')]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('survey', 'tidak ada survey', 'NEG')]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[('login kode', 'ga bisa login', 'NEG'), ('login kode', 'ga muncul via', 'NEG'), ('login kode', 'ga bisa login login', 'NEG'), ('login login', 'ga bisa login', 'NEG')]</t>
+          <t>[('login', 'ga bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[('pelayan the', 'sangat ramah pelayan', 'POS'), ('pelayan the', 'the best . [SEP]', 'POS')]</t>
+          <t>[('pelayan', 'sangat ramah pelayan', 'POS')]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[('aplikasi sangat', 'sangat muda digunakannya kalau', 'POS')]</t>
+          <t>[('aplikasi', 'muda digunakannya kalau', 'POS')]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[('aplikasi sangat', 'sangat jelek banget saya', 'NEG'), ('apk nya', 'jelek banget apk', 'NEG')]</t>
+          <t>[('aplikasi', 'sangat jelek banget saya', 'NEG'), ('apk', 'jelek banget apk', 'NEG'), ('login', 'jelek banget apk', 'NEG'), ('login', 'jelek banget apk nya', 'NEG')]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('produk', 'ga terbaca dong', 'NEG')]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[('dibuka ? ? ? ? . [SEP]', 'kgk bisa dibuka', 'NEG')]</t>
+          <t>[('dibuka', 'kgk bisa dibuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[('ngelag nya', 'banyak ngel', 'NEG'), ('ngelag nya', 'tidak berguna banyak', 'NEG')]</t>
+          <t>[('ngelag', 'banyak ngel', 'NEG')]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'lama banget gitu', 'NEG')]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[('server terus', 'tidak terhubung ke', 'NEG')]</t>
+          <t>[('server', 'tidak terhubung ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[('cek tn', 'tidak bisa cek', 'NEG')]</t>
+          <t>[('cek', 'tidak bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[('update ke', 'nggak bisa di buka sams', 'NEG')]</t>
+          <t>[('update', 'nggak bisa di buka sams', 'NEG'), ('buka', 'nggak bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[('mengidentifikasi ya', 'lola di', 'NEG')]</t>
+          <t>[('mengidentifikasi', 'lola di', 'NEG')]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[('log in aja', 'susah . mau', 'NEG')]</t>
+          <t>[('log', 'susah', 'NEG'), ('lihat', 'di persulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[('pelayanan sip', 'menyenangkan . [SEP]', 'POS')]</t>
+          <t>[('pelayanan', 'menyenangkan', 'POS')]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[('buka baru', 'gag bisa di', 'NEG')]</t>
+          <t>[('buka', 'gag bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[('aplikasi , gk', 'gk guna . biro', 'NEG')]</t>
+          <t>[('aplikasi', 'gk guna', 'NEG')]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[('sdm nya', 'gagal terus , pakai', 'NEG'), ('sdm nya', 'tolong di perbaiki sdm', 'NEU')]</t>
+          <t>[('apk', 'menyusahkan', 'NEG'), ('daftar', 'gagal terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'lemot bgt aplikasi', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot bgt aplikasi', 'NEG')]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[('aplikasi ya', 'ya ampun bener', 'NEG'), ('aplikasi ya', 'belum siap online', 'NEG')]</t>
+          <t>[('aplikasi', 'belum siap online jgn', 'NEG')]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[('appnya bap', 'bapuk . . [SEP]', 'NEG')]</t>
+          <t>[('appnya', 'bapuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'suka keluar sendiri ? . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'suka keluar sendiri', 'NEG')]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'jangan instal aplikasi', 'NEU')]</t>
+          <t>[('aplikasi', 'jangan instal aplikasi', 'NEG')]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[('logoutnya yg', 'susah , harus', 'NEG')]</t>
+          <t>[('logoutnya', 'susah', 'NEG')]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak bisa digunakan sama', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa digunakan sama', 'NEG')]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[('scan barcodenya terlalu', 'terlalu cepat jd', 'NEG'), ('scan barcodenya terlalu', 'tidak bisa fokus akhirnya', 'NEG')]</t>
+          <t>[('scan', 'tidak bisa fokus', 'NEG')]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[('scan barcode tidak', 'tidak bisa . [SEP]', 'NEG')]</t>
+          <t>[('scan', 'tidak bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[('aplikasi pinj', 'kalah ama', 'NEG')]</t>
+          <t>[('aplikasi', 'payah begini', 'NEG'), ('aplikasi', 'gk bisa ngecek plat', 'NEG')]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[('responnya . . . [SEP]', 'cepet banget respon', 'POS')]</t>
+          <t>[('responnya', 'cepet banget respon', 'POS')]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('mengidentifikasi', 'lama sekali untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[('apps gag', 'gag , apps', 'NEG'), ('apps gag', 'gag fungsi . . [SEP]', 'NEG'), ('apps dan', 'gag fungsi . . [SEP]', 'NEG')]</t>
+          <t>[('apps', 'gag fungsi', 'NEG'), ('apps', 'gag fungsi', 'NEG')]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak jelas . semua', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak bisa di buka . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa di buka', 'NEG')]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[('presensi online kurang', 'kurang merakyat . [SEP]', 'NEG'), ('aplikasi presensi online kurang', 'kurang merakyat . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'kurang merakyat', 'NEG')]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[('app nya', 'gak bisa di buka , makin', 'NEG'), ('app nya', 'sering eror . [SEP]', 'NEG')]</t>
+          <t>[('app', 'sering eror', 'NEG'), ('app', 'gak bisa di buka', 'NEG')]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[('loading trus', 'trus . [SEP]', 'NEG')]</t>
+          <t>[('loading', 'trus', 'NEG')]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[('server terus', 'tidak dpt terkoneksi ke', 'NEG')]</t>
+          <t>[('server', 'tidak dpt terkoneksi ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[('aplikasi koq', 'banyak error nya', 'NEG')]</t>
+          <t>[('aplikasi', 'error nya', 'NEG')]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[('aplikasi bap', 'bapuk istri', 'NEG')]</t>
+          <t>[('aplikasi', 'bapuk istri', 'NEG')]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[('aplikasi bur', 'burik dan', 'NEG'), ('barcode gk', 'gk bisa . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'burik dan', 'NEG'), ('aplikasi', 'buruk', 'NEG'), ('barcode', 'gk bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[('apk sampah', 'sampah . [SEP]', 'NEG')]</t>
+          <t>[('apk', 'sampah', 'NEG'), ('apk', 'ga bisa di pake apk', 'NEG')]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[('apl nya', 'keren apl', 'POS')]</t>
+          <t>[('apl', 'keren apl', 'POS')]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[('aplikasinya loading', 'loading mulu , padahal', 'NEG')]</t>
+          <t>[('aplikasinya', 'loading mulu', 'NEG')]</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'kurang berguna aplikasi', 'NEG')]</t>
+          <t>[('aplikasi', 'kurang berguna aplikasi', 'NEG'), ('petugas', 'tidak berguna', 'NEG')]</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[('web juga', 'tidak bisa diakses . [SEP]', 'NEG')]</t>
+          <t>[('web', 'tidak bisa diakses', 'NEG'), ('update', 'tidak bisa diakses', 'NEG')]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('ngurus', 'cepat penanganan', 'POS')]</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[('aplikasi pemerintah', 'selalu dungu . sangat', 'NEG')]</t>
+          <t>[('aplikasi', 'selalu dungu', 'NEG')]</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[('aplikaaih yang', 'bagus . [SEP]', 'POS')]</t>
+          <t>[('aplikaaih', 'bagus', 'POS')]</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[('akun saya', 'tidak bisa masuk padahal', 'NEG')]</t>
+          <t>[('masuk', 'tidak bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[('server terus', 'gagal server', 'NEG')]</t>
+          <t>[('server', 'gagal server', 'NEG')]</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[('login . [SEP]', 'tidak bisa login', 'NEG')]</t>
+          <t>[('login', 'tidak bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[('apknya ga', 'ga bagus . [SEP]', 'NEG')]</t>
+          <t>[('apknya', 'ga bagus', 'NEG')]</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[('ngirim verif ke', 'lama , malah', 'NEG'), ('ngirim verif ke', 'gabisa had', 'NEG')]</t>
+          <t>[('verif', 'lama', 'NEG')]</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[('pengecekan produk . [SEP]', 'sangat bagus dan', 'POS'), ('pengecekan produk . [SEP]', 'sangat membantu untuk', 'POS')]</t>
+          <t>[('pengecekan', 'sangat bagus dan', 'POS'), ('pengecekan', 'sangat membantu untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[('aplikasi eror', 'eror gak', 'NEG'), ('aplikasi eror', 'gak bisa di buka lagi', 'NEG')]</t>
+          <t>[('aplikasi', 'eror gak', 'NEG'), ('aplikasi', 'gak bisa di buka lagi', 'NEG')]</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[('ngepastiin produk asli', 'lemot amat pas', 'NEG'), ('aplikasi dibutuhkan', 'dibutuhkan banget , tapi', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot amat pas', 'NEG')]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[('aplikasi rusak', 'rusak , belum', 'NEG'), ('aplikasi baru', 'jelek . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'jelek', 'NEG'), ('login', 'ga mau', 'NEG'), ('aplikasi', 'rusak', 'NEG')]</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('mendaftar', 'tidak bisa mendaftar', 'NEG'), ('pendaftaran', 'selalu gagal', 'NEG')]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[('syarat dokumen yg', 'ambigu , sehingga', 'NEG')]</t>
+          <t>[('syarat', 'ambigu', 'NEG')]</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[('aplikasinya udah', 'ga bisa digunakan buat', 'NEG')]</t>
+          <t>[('aplikasinya', 'ga bisa digunakan buat', 'NEG')]</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'ga bisa dipakai aplikasi', 'NEG')]</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[('scanning nya', 'muter terus . [SEP]', 'NEG')]</t>
+          <t>[('scanning', 'muter terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[('verifikasi nik aja', 'gagal terus . [SEP]', 'NEG')]</t>
+          <t>[('verifikasi', 'gagal terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'labil banget yahh', 'NEG')]</t>
+          <t>[('aplikasi', 'labil banget yahh', 'NEG')]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[('scan . [SEP]', 'tidak bisa scan', 'NEG')]</t>
+          <t>[('scan', 'tidak bisa scan', 'NEG')]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[('donlot bener', 'ga bisa dipake lagi', 'NEG'), ('donlot bener', 'ga bisa di', 'NEG'), ('app . [SEP]', 'ga bisa dipake lagi', 'NEG')]</t>
+          <t>[('app', 'ga bisa dipake lagi', 'NEG')]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[('koneksi gag', 'gagsl terus . jd', 'NEG'), ('ngecek pembayaran pajak . koneksi', 'ga bs ngec', 'NEG')]</t>
+          <t>[('koneksi', 'gagsl terus', 'NEG'), ('ngecek', 'ga bs ngec', 'NEG'), ('apk', 'smakin parah ni', 'NEG')]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[('reset password . [SEP]', 'tidak bisa reset', 'NEG')]</t>
+          <t>[('reset', 'tidak bisa reset', 'NEG')]</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('pelayanan', 'full senyum pelayanan', 'POS'), ('respon', 'sangat cepat dengan', 'POS')]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[('masuk , harus', 'gabisa masuk', 'NEG'), ('masukin pin mulu', 'gajelas ni', 'NEG')]</t>
+          <t>[('login', 'gabisa masuk', 'NEG'), ('aplikasi', 'gajelas ni', 'NEG')]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[('aplikasinya top', 'top bgt . . . sangat', 'POS')]</t>
+          <t>[('aplikasinya', 'top bgt', 'POS')]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[('ngisi formnya . [SEP]', 'susah ng', 'NEG')]</t>
+          <t>[('dowload', 'kebanyakan data yg hrs diinput', 'NEG')]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[('apl nya', 'gk bisa di', 'NEG'), ('download yaa', 'gk bisa di', 'NEG')]</t>
+          <t>[('apl', 'gk bisa di', 'NEG'), ('download', 'gk bisa di', 'NEG'), ('download', 'gk bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[('server . [SEP]', 'tidak terhubung ke', 'NEG')]</t>
+          <t>[('server', 'tidak terhubung ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[('respon cepat', 'cepat . [SEP]', 'POS')]</t>
+          <t>[('respon', 'cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[('aplikasinya . . ngurus', 'susah aplikasinya', 'NEG')]</t>
+          <t>[('aplikasinya', 'susah aplikasinya', 'NEG')]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[('jaringannya belum', 'belum diperbaiki , percuma', 'NEG')]</t>
+          <t>[('update', 'belum diperbaiki', 'NEG'), ('loading', 'lama hampir', 'NEG'), ('loading', 'lama hampir 5', 'NEG'), ('cek', 'lama tuh', 'NEG')]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus dan', 'POS'), ('aplikasi bagus', 'memuaskan . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'memuaskan', 'POS'), ('aplikasi', 'bagus dan', 'POS')]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat suka ada', 'POS')]</t>
+          <t>[('aplikasi', 'sangat suka ada', 'POS')]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[('aplikasi anda', 'lemot dan', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot dan', 'NEG'), ('aplikasi', 'tidak bisa digunakan', 'NEG'), ('aplikasi', 'tidak bisa digunakan', 'NEG')]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('pelayanan', 'sudah bagus', 'POS')]</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[('cek pkb . [SEP]', 'ga bisa buat', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[('buka ya', 'susah di', 'NEG')]</t>
+          <t>[('buka', 'susah di', 'NEG')]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[('aplikasi lemot', 'lemot , low', 'NEG'), ('aplikasi lemot', 'low respon . anggaran', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot', 'NEG'), ('aplikasi', 'low respon', 'NEG')]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[('apl nya', 'agak lambat . [SEP]', 'NEG'), ('loading agak', 'agak lambat . [SEP]', 'NEG')]</t>
+          <t>[('apl', 'agak lambat', 'NEG')]</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[('aplikasi sip', 'berjalan lancar dengan', 'POS')]</t>
+          <t>[('aplikasi', 'berjalan lancar dengan', 'POS')]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[('aplikasi dengan', 'tidak bisa membuka aplikasi', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa membuka aplikasi', 'NEG')]</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[('login . [SEP]', 'susah untuk', 'NEG')]</t>
+          <t>[('login', 'susah untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[('aplikasi bodoh', 'bodoh ga', 'NEG'), ('aplikasi bodoh', 'ga mau sama sekali , nes', 'NEG')]</t>
+          <t>[('aplikasi', 'bodoh ga', 'NEG'), ('aplikasi', 'ga mau sama', 'NEG')]</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[('pelayanan lama', 'lama , ribet', 'NEG'), ('pelayanan lama', 'ribet diminta', 'NEG')]</t>
+          <t>[('pelayanan', 'lama', 'NEG'), ('pelayanan', 'ribet diminta', 'NEG')]</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[('aplikasi sampah', 'sampah . untuk', 'NEG'), ('login akun saja', 'sangat dipersulit . . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'sampah', 'NEG'), ('login', 'sangat dipersulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[('aplikasinya tidak', 'tidak kebuka , ini', 'NEG')]</t>
+          <t>[('aplikasinya', 'tidak kebuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[('app daripada', 'bikin kesal orang', 'NEG')]</t>
+          <t>[('app', 'bikin kesal orang', 'NEG'), ('looodiiiing', 'terussss', 'NEG')]</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[('responnya . [SEP]', 'cepet respon', 'POS')]</t>
+          <t>[('responnya', 'cepet respon', 'POS')]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'bagus dah', 'POS')]</t>
+          <t>[('aplikasinya', 'bagus dah', 'POS')]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'sampahh', 'NEG')]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sangat sulit di akses permintaan', 'NEG'), ('permintaan gaj', 'gajelas . cocok', 'NEG'), ('aplikasi . sampah', 'sampah . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'cocok dimusnakan ni', 'NEG'), ('aplikasi', 'sangat sulit di akses permintaan', 'NEG')]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[('penggunaan layanan', 'kurang , maaf', 'NEG')]</t>
+          <t>[('layanan', 'masih kurang', 'NEG')]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[('aplikasi sangat', 'sangat buruk dan', 'NEG')]</t>
+          <t>[('aplikasi', 'sangat buruk dan', 'NEG')]</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'terlalu bertele " . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'terlalu bertele "', 'NEG'), ('aplikasi', 'ga jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[('alarm notif nya', 'mengganggu sekali . [SEP]', 'NEG')]</t>
+          <t>[('alarm', 'mengganggu sekali', 'NEG')]</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[('aplikasi ga', 'ga jelas , ga', 'NEG'), ('aplikasi ga', 'ga bisa dipake , klu', 'NEG'), ('aplikasi aplikasi', 'ga bisa dipake , klu', 'NEG'), ('aplikasi aplikasi ga', 'ga jelas , ga', 'NEG'), ('aplikasi aplikasi ga', 'ga bisa dipake , klu', 'NEG')]</t>
+          <t>[('aplikasi', 'ga jelas', 'NEG'), ('aplikasi', 'ga bisa dipake', 'NEG'), ('aplikasi', 'ga satu aja', 'NEG'), ('aplikasi', 'ga bisa dipake', 'NEG'), ('aplikasi', 'ga jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[('cek keaslian produk tp', 'tdk bisa . . . [SEP]', 'NEG')]</t>
+          <t>[('cek', 'tdk bisa', 'NEG'), ('cek', 'tdk bisa', 'NEG'), ('aplikasi', 'tdk bs scan barcode', 'NEG'), ('aplikasi', 'muter - muter terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[('apkikasi sampah', 'sampah gak', 'NEG')]</t>
+          <t>[('apkikasi', 'sampah gak', 'NEG'), ('cek', 'gak bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('download', 'ga kebuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[('daftar ga', 'ga bisa masuk', 'NEG')]</t>
+          <t>[('daftar', 'ga bisa', 'NEG'), ('daftar', 'ga bisa masuk ga', 'NEG')]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[('aplikasi . [SEP]', 'tidak muncul di', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak muncul di', 'NEG')]</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[('masuk , setiap', 'susah untuk', 'NEG')]</t>
+          <t>[('layanannya', 'perbaiki layanan', 'NEG'), ('masuk', 'susah untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[('login padahal', 'tidk bisa login', 'NEG'), ('login . had', 'gabisa login', 'NEG')]</t>
+          <t>[('login', 'gabisa login', 'NEG'), ('login', 'tidk bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('bikin', 'serius dikit apa', 'NEG')]</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[('cek bpom', 'loading mulu gimana', 'NEG')]</t>
+          <t>[('loading', 'mulu gimana', 'NEG')]</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[('penggunaannya dan', 'susah penggunaannya', 'NEG')]</t>
+          <t>[('penggunaannya', 'susah penggunaannya', 'NEG')]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[('scan produk , kok', 'ga bisa . bahkan', 'NEG')]</t>
+          <t>[('scan', 'ga bisa', 'NEG'), ('aplikasinya', 'tolong segera diperbaiki aplikasinya', 'NEU'), ('aplikasinya', 'segera diperbaiki aplikasinya', 'NEU')]</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[('aplikasi lemot', 'lemott , ga', 'NEG'), ('login aja', 'gabisa padahal', 'NEG'), ('aplikasi . [SEP]', 'tolong diperbaiki ini', 'NEU')]</t>
+          <t>[('aplikasi', 'lemott', 'NEG'), ('login', 'gabisa padahal', 'NEG'), ('cek', 'lemott', 'NEG')]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[('lodingnya hampir', 'hampir sejam terus gunanya apa', 'NEG')]</t>
+          <t>[('aplikasi', 'lama bener lodingnya hampir sejam terus', 'NEG'), ('lodingnya', 'hampir sejam terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[('download sampe', 'gak bisa dibuka . . [SEP]', 'NEG')]</t>
+          <t>[('dibuka', 'gak bisa dibuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat baik aplikasi', 'POS')]</t>
+          <t>[('aplikasi', 'sangat baik aplikasi', 'POS')]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat merasa terbantu dengan', 'POS')]</t>
+          <t>[('aplikasi', 'sangat merasa terbantu dengan', 'POS')]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[('informasi . [SEP]', 'minim informasi', 'POS')]</t>
+          <t>[('informasi', 'minim informasi', 'POS')]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'error bermasalah', 'NEG')]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('cek', 'lola', 'NEG')]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[('daftar kenapa', 'ga bisa2 ? . [SEP]', 'NEG')]</t>
+          <t>[('daftar', 'ga bisa2', 'NEG')]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[('upload ga', 'ga pernah bisa', 'NEG')]</t>
+          <t>[('upload', 'ga pernah bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[('lapor diam', 'ga di tanggapin . mending', 'NEG')]</t>
+          <t>[('lapor', 'ga di tanggapin', 'NEG')]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sangat bermanfaat untuk', 'POS')]</t>
+          <t>[('aplikasi', 'sangat bermanfaat untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[('update selalu', 'selalu . . cari', 'POS')]</t>
+          <t>[('bug', 'cari bug', 'NEG')]</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasinya', 'sudah mulai berbenah aplikasinya', 'POS')]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('loading', '30menit lewat', 'NEG')]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[('cek . [SEP]', 'tidak bisa untuk', 'NEG')]</t>
+          <t>[('cek', 'tidak bisa untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[('cctv min', 'gak bisa play cctv', 'NEG')]</t>
+          <t>[('play', 'gak bisa play', 'NEG')]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[('cek apalagi', 'gak bisa cek', 'NEG')]</t>
+          <t>[('cek', 'gak bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[('koneksi server . [SEP]', 'tidak ada koneksi', 'NEG')]</t>
+          <t>[('server', 'tidak ada koneksi server', 'NEG')]</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[('pakai . [SEP]', 'gak bisa di', 'NEG')]</t>
+          <t>[('pakai', 'gak bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[('layanan lambat', 'lambat , cuma', 'NEG')]</t>
+          <t>[('layanan', 'lambat', 'NEG')]</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[('scan nya', 'cepet banget asal', 'POS'), ('scan nya', 'gak terdaftar udah', 'NEG'), ('scan produk terdaftar', 'gak terdaftar udah', 'NEG')]</t>
+          <t>[('scan', 'cepet banget asal', 'NEG')]</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'bagus , tp', 'POS')]</t>
+          <t>[('penindakan', 'jelek banget', 'NEG'), ('aplikasi', 'bagus', 'POS')]</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'tidak ada koneksi internet', 'NEG')]</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[('update kog', 'tidak bisa dibuka malah', 'NEG')]</t>
+          <t>[('update', 'tidak bisa dibuka malah', 'NEG')]</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[('cek pajak biasanya', 'ga fungsi untuk', 'NEG')]</t>
+          <t>[('update', 'ga fungsi untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[('aplikasinya gak', 'gak jalan sampah bgt . [SEP]', 'NEG')]</t>
+          <t>[('menu', 'cuma muncul gambar putih', 'NEG'), ('aplikasinya', 'gak jalan sampah', 'NEG'), ('aplikasinya', 'sampah bgt', 'NEG')]</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[('aplikasi gaj', 'gajelas mau', 'NEG'), ('unduh sertifikat vaksin aja', 'di persulit . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'gajelas mau', 'NEG'), ('unduh', 'persulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak jelas . dicari', 'NEG'), ('parasetamol saja', 'tidak ditemukan . [SEP]', 'NEG'), ('nama dagang , nomor registrasi semua', 'tidak bisa . bahkan', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[('aplikasi jangan', 'jangan di persulit . [SEP]', 'NEG')]</t>
+          <t>[('login', 'mesalah yang', 'NEG')]</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[('daftar lemot', 'lemot . gab', 'NEG'), ('masuk . [SEP]', 'gabisa masuk', 'NEG')]</t>
+          <t>[('masuk', 'gabisa masuk', 'NEG'), ('daftar', 'lemot', 'NEG')]</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[('aplikasinya jelek', 'jelek , untuk', 'NEG')]</t>
+          <t>[('aplikasinya', 'jelek', 'NEG')]</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[('log in astaga', 'susaah banget mau', 'NEG')]</t>
+          <t>[('log', 'susaah banget mau', 'NEG')]</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[('admin cs melalui', 'sangat membantu dan', 'POS')]</t>
+          <t>[('admin', 'menjelaskan dengan detail', 'POS')]</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[('apk gk', 'gk bisa di pakai buat', 'NEG'), ('cek pajak masak', 'eror mulu . [SEP]', 'NEG')]</t>
+          <t>[('apk', 'gk bisa di pakai buat', 'NEG')]</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[('download jangan', 'jangan dulu deh', 'NEU')]</t>
+          <t>[('loading', 'ber jam jam', 'NEG')]</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[('layanan edit /', 'tidak terdapat layanan', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[('cek pajak kendaraan . [SEP]', 'ga bisa cek', 'NEG')]</t>
+          <t>[('cek', 'payah ga', 'NEG'), ('cek', 'ga bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[('buka . [SEP]', 'gx bisa di', 'NEG'), ('buka . [SEP]', 'susah gx', 'NEG')]</t>
+          <t>[('buka', 'gx bisa di', 'NEG'), ('buka', 'susah gx', 'NEG')]</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[('menyimpan akun yang', 'tidak bisa menyimpan', 'NEG')]</t>
+          <t>[('update', 'tidak bisa menyimpan akun yang', 'NEG')]</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[('aplikasi ga', 'ga guna malah', 'NEG'), ('aplikasi ga', 'malah downgrade setelah', 'NEG')]</t>
+          <t>[('aplikasi', 'ga guna malah', 'NEG')]</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat berguna untuk', 'POS')]</t>
+          <t>[('aplikasi', 'sangat berguna untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[('buka nya', 'lama d', 'NEG')]</t>
+          <t>[('buka', 'lama d', 'NEG')]</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[('loading terus', 'terus . biasa', 'NEG')]</t>
+          <t>[('update', 'loading terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[('loading nya', 'lama banget loading', 'NEG')]</t>
+          <t>[('loading', 'lama banget loading', 'NEG')]</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[('server &amp;', 'tidak dapat terhubung ke', 'NEG')]</t>
+          <t>[('server', 'tidak dapat terhubung ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'sangat membantu aplikasinya', 'POS')]</t>
+          <t>[('aplikasinya', 'sangat membantu aplikasinya', 'POS')]</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[('laporan saya', 'belum ada tindak lanjut . [SEP]', 'NEG')]</t>
+          <t>[('laporan', 'belum ada tindak lanjut', 'NEG')]</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('server', 'muter doank', 'NEG')]</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[('login malah', 'dipersulit giliran', 'NEG')]</t>
+          <t>[('login', 'dipersulit giliran', 'NEG')]</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[('aplikasinya sangat', 'sangat membantu untuk', 'POS')]</t>
+          <t>[('aplikasinya', 'sangat membantu untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[('akun tidak', 'tidak di temukan atau', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa mengakses akun email', 'NEG')]</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[('cctv gak', 'gak bisa terbuka . . . . barus', 'NEG')]</t>
+          <t>[('cctv', 'gak bisa terbuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[('riset password susah', 'susah daftar', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[('aplikasi lemot', 'lemot , gak', 'NEG'), ('aplikasi lemot', 'gak pernah diperbaiki apa', 'NEG')]</t>
+          <t>[('aplikasi', 'gak pernah diperbaiki apa', 'NEG'), ('aplikasi', 'lemot', 'NEG')]</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[('pembaruan jadi', 'eror . [SEP]', 'NEG')]</t>
+          <t>[('pembaruan', 'eror', 'NEG')]</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[('aplikasinya sangat', 'sangat membantu masyarakat , petugas', 'POS'), ('petugasnya ramah', 'ramah . terimakasih', 'POS')]</t>
+          <t>[('aplikasinya', 'sangat membantu masyarakat', 'POS'), ('petugasnya', 'ramah', 'POS')]</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[('cek . bayar pajak muat', 'sangat sulit buat', 'POS')]</t>
+          <t>[('cek', 'sangat sulit buat', 'NEG')]</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[('akses js', 'lancar akses', 'POS')]</t>
+          <t>[('akses', 'lancar akses', 'POS')]</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[('apk bagus', 'bagus bisa', 'POS')]</t>
+          <t>[('apk', 'bagus bisa', 'POS')]</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[('pelayanan desa', 'sangat cepat terimakasih', 'POS')]</t>
+          <t>[('pengurusan', 'sangat cepat terimakasih', 'POS'), ('pengurusan', 'sangat cepat terimakasih', 'POS')]</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[('aplikasinya error', 'error ya', 'NEG')]</t>
+          <t>[('aplikasinya', 'error ya', 'NEG')]</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'tidak di temukan terus', 'NEG'), ('aplikasinya . [SEP]', 'bad banget aplikasinya', 'NEG')]</t>
+          <t>[('aplikasinya', 'bad banget aplikasinya', 'NEG'), ('keterangan', 'tidak di temukan terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[('cek pajak skrg', 'ga bisa cek', 'NEG')]</t>
+          <t>[('aplikasi', 'ga jelas ni', 'NEG'), ('cek', 'ga bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[('apk gak', 'gak jelas sudah', 'NEG')]</t>
+          <t>[('apk', 'gak jelas sudah', 'NEG')]</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[('login tolong', 'susah login', 'NEG')]</t>
+          <t>[('login', 'susah login', 'NEG')]</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[('aplikasi ga', 'ga bisa2 dibuka yaa', 'NEG')]</t>
+          <t>[('aplikasi', 'ga bisa2 dibuka yaa', 'NEG')]</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('fitur', 'tidak ada', 'NEG')]</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[('pengaduan selalu', 'selalu di respon . [SEP]', 'POS')]</t>
+          <t>[('pengaduan', 'selalu di respon', 'POS')]</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'loading terus dan', 'NEG')]</t>
+          <t>[('aplikasi', 'lama banget', 'NEG'), ('aplikasi', 'loading terus dan', 'NEG'), ('aplikasi', 'berguna banget', 'POS'), ('aplikasi', 'bagus dan', 'POS'), ('aplikasi', 'berguna banget', 'POS')]</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[('klik go bisa', 'bisa2 . [SEP]', 'NEG')]</t>
+          <t>[('klik', 'go bisa2', 'NEG')]</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[('aplikasi sangat', 'sangat buruk . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'sangat buruk', 'NEG')]</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[('pelayanan yg', 'sangat puas dg', 'POS')]</t>
+          <t>[('pelayanan', 'sangat puas dg', 'POS')]</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[('proses cepat', 'cepat . [SEP]', 'POS')]</t>
+          <t>[('proses', 'cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[('sertifikat vaksin kenapa', 'diilangin anj', 'NEG'), ('aplikasi ! ! balik', 'gajelas yg', 'NEG')]</t>
+          <t>[('bikin', 'gajelas yg', 'NEG')]</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('mengurus', 'tidak dibarengi dengan', 'NEG')]</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[('aplikasi lemot', 'lemot padahal', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot padahal', 'NEG')]</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus dan', 'POS'), ('aplikasi bagus', 'simpel memperlancar', 'POS')]</t>
+          <t>[('aplikasi', 'memperlancar kebutuhan masyarakat sidoarjo', 'POS'), ('aplikasi', 'simpel memperlancar', 'POS'), ('aplikasi', 'bagus dan', 'POS')]</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[('aplikasi apaan', 'sering banget eror', 'NEG')]</t>
+          <t>[('eror', 'sering banget eror', 'NEG')]</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[('aplikasi gaj', 'gajelas ga', 'NEG'), ('login gab', 'gabisa login', 'NEG'), ('apasi gaj', 'gajelas . [SEP]', 'NEG')]</t>
+          <t>[('login', 'gabisa login', 'NEG'), ('login', 'gabisa apa', 'NEG'), ('masuk', 'ga bisa masuk', 'NEG'), ('aplikasi', 'gajelas ga', 'NEG')]</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[('dipake cm', 'gk bisa dipake', 'NEG')]</t>
+          <t>[('dipake', 'gk bisa dipake', 'NEG')]</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[('aplikasi udah', 'tolong di perbaiki lagi ya', 'NEU')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'sangat praktis dan', 'POS'), ('aplikasi yang', 'interaktif . mant', 'POS')]</t>
+          <t>[('aplikasi', 'interaktif', 'POS'), ('aplikasi', 'sangat praktis dan', 'POS')]</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sangat membantu , tanpa', 'POS')]</t>
+          <t>[('aplikasi', 'sangat membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[('presensi . [SEP]', 'kesulitan untuk', 'NEG')]</t>
+          <t>[('presensi', 'kesulitan untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[('login , sy', 'ng bisa dibuka / login', 'NEG')]</t>
+          <t>[('login', 'ng bisa dibuka /', 'NEG')]</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[('aplikasi , sebelum', 'jelek bangett nih', 'NEG')]</t>
+          <t>[('aplikasi', 'jelek bangett nih', 'NEG')]</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[('daftar . [SEP]', 'susah apalagi', 'NEG')]</t>
+          <t>[('daftar', 'susah apalagi', 'NEG')]</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[('aplikasi jak', 'lama sekali padahal', 'NEG'), ('download aplikasi jak', 'lama sekali padahal', 'NEG')]</t>
+          <t>[('aplikasi', 'lama sekali padahal', 'NEG'), ('download', 'lama sekali padahal', 'NEG')]</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[('lupa pasword tidak', 'tidak ada . [SEP]', 'NEG')]</t>
+          <t>[('lupa', 'tidak ada', 'NEG')]</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[('petugasnya ramah', 'ramah - ramah semua', 'POS'), ('aplikasinya bagus', 'bagus banget , , saya', 'POS')]</t>
+          <t>[('aplikasinya', 'bagus banget', 'POS'), ('petugasnya', 'ramah - ramah semua', 'POS')]</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[('respon nya', 'baik dan', 'POS'), ('respon nya', 'cepat . [SEP]', 'POS')]</t>
+          <t>[('respon', 'baik dan', 'POS'), ('respon', 'cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[('versi baru', 'ribet . . simple', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[('apknya gak', 'gak wortit . [SEP]', 'NEG'), ('apknya gak', 'lambat banget apk', 'NEG')]</t>
+          <t>[('apknya', 'lambat banget apk', 'NEG')]</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[('aplikasi kurang', 'kurang sempurna . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'kurang sempurna', 'NEG')]</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[('profil kacau', 'kacau . [SEP]', 'NEG'), ('cek sertifikat vaksin gak', 'gak muncul . profil', 'NEG')]</t>
+          <t>[('profil', 'kacau', 'NEG'), ('cek', 'gak muncul', 'NEG')]</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[('pakai . [SEP]', 'tidak bisa di', 'NEG')]</t>
+          <t>[('pakai', 'tidak bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('meng', 'tidak bisa meng', 'NEG')]</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'di perbaiki mau', 'NEG'), ('cek status kendaraan aja', 'gak bisa dan', 'NEG')]</t>
+          <t>[('aplikasi', 'di perbaiki mau', 'NEG'), ('cek', 'gak bisa dan', 'NEG')]</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[('aplikasi . [SEP]', 'gak jelas nih', 'NEG')]</t>
+          <t>[('aplikasi', 'gak jelas nih', 'NEG')]</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[('aplikasi payah', 'payah . mau', 'NEG'), ('lapor foto ribet', 'ribet . harus', 'NEG')]</t>
+          <t>[('aplikasi', 'payah', 'NEG'), ('lapor', 'ribet', 'NEG')]</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[('buka pda', 'susah d', 'NEG')]</t>
+          <t>[('download', 'susah d', 'NEG'), ('download', 'susah d buka pda', 'NEG')]</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[('pelayanan sangat', 'sangat bagus . [SEP]', 'POS')]</t>
+          <t>[('pelayanan', 'sangat bagus', 'POS')]</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[('masuk sama', 'ga bisa masuk', 'NEG')]</t>
+          <t>[('update', 'ga bisa masuk sama', 'NEG')]</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[('dibuka . [SEP]', 'ga bisa dibuka', 'NEG')]</t>
+          <t>[('dibuka', 'ga bisa dibuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[('apk nya', 'tdk bisa dipakai buat', 'NEG')]</t>
+          <t>[('apk', 'tdk bisa dipakai buat cek pembayaran', 'NEG')]</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[('masuk kenapa', 'gk bisa masuk', 'NEG'), ('daftar . kok', 'ribet banget ya', 'NEG')]</t>
+          <t>[('masuk', 'gk bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[('aplikasinya . sukses', 'baguuss sekali kak', 'POS')]</t>
+          <t>[('aplikasinya', 'baguuss sekali kak', 'POS')]</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak jelas bgke . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'gak jelas bgke', 'NEG')]</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[('sistem tolong', 'tolong di benerin . [SEP]', 'NEU')]</t>
+          <t>[('sistem', 'tolong di benerin', 'NEU'), ('sistem', 'terjadi kesalahan pada', 'NEG')]</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[('mengecek pajak pembayaran . . . [SEP]', 'tidak bisa mengecek', 'NEG')]</t>
+          <t>[('mengecek', 'tidak bisa mengecek', 'NEG')]</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[('buka , sangat', 'ngk bisa di', 'NEG')]</t>
+          <t>[('buka', 'ngk bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[('pelayanannya makin', 'makin mantab . [SEP]', 'POS'), ('pelayanannya makin', 'istimewa pelayanannya', 'POS')]</t>
+          <t>[('pelayanannya', 'istimewa pelayanannya', 'POS')]</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'tdk terlalu sering digunakan . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'tdk terlalu sering digunakan', 'NEG')]</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[('scannya . [SEP]', 'gabisa dipake', 'NEG')]</t>
+          <t>[('scannya', 'gajelas gab', 'NEG'), ('scannya', 'gabisa dipake scann', 'NEG')]</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'berfungsi ? karena', 'POS')]</t>
+          <t>[('akses', 'tidak bisa akses', 'NEG')]</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[('aplikasi jelek', 'jelek , lemot', 'NEG'), ('aplikasi jelek', 'lemot . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot', 'NEG'), ('aplikasi', 'jelek', 'NEG')]</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[('download . [SEP]', 'susah di', 'NEG')]</t>
+          <t>[('download', 'susah di', 'NEG')]</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[('cek pbbsih dari', 'gabisa cek', 'NEG')]</t>
+          <t>[('cek', 'gabisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('presensi', 'hilang je', 'NEG')]</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[('developer nya', 'gak becus ngurus', 'NEG')]</t>
+          <t>[('developer', 'gak becus ngurus', 'NEG'), ('daftar', 'susah login', 'NEG')]</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[('proses nya', 'lama , ga', 'NEG')]</t>
+          <t>[('proses', 'lama', 'NEG')]</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak jelas jangan', 'NEG')]</t>
+          <t>[('aplikasi', 'gak jelas jangan', 'NEG')]</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[('apk milik', 'ga ada yg becus apk', 'NEG'), ('apk kunt', 'kuntul masa', 'NEG')]</t>
+          <t>[('apk', 'ga ada yg becus apk', 'NEG'), ('apk', 'kuntul masa', 'NEG')]</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus dan', 'POS')]</t>
+          <t>[('aplikasi', 'bagus dan', 'POS'), ('aplikasi', 'membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[('update aplikasi nya', 'gak bisa update', 'NEG')]</t>
+          <t>[('update', 'gak bisa update', 'NEG')]</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[('aplikasinya apik', 'apik tenan . [SEP]', 'POS')]</t>
+          <t>[('aplikasinya', 'apik tenan', 'POS')]</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[('sertifikat vaksin hilang', 'hilang aneh', 'NEG')]</t>
+          <t>[('sertifikat', 'hilang aneh', 'NEG')]</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[('cek pajak setelah', 'gabisa cek', 'NEG')]</t>
+          <t>[('cek', 'gabisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[('ngecek maka', 'g keluar , gimana', 'NEG')]</t>
+          <t>[('ngecek', 'g keluar', 'NEG')]</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[('login tidak', 'tidak terdaftar katanya', 'NEG'), ('dl sertifikat aja', 'susah , ga', 'NEG')]</t>
+          <t>[('login', 'ga bisa login', 'NEG'), ('login', 'tidak terdaftar katanya', 'NEG')]</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[('server dan', 'maslahnya server', 'NEG')]</t>
+          <t>[('server', 'maslahnya server', 'NEG')]</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[('pelayanan surat lebih', 'lebih cepat . [SEP]', 'POS')]</t>
+          <t>[('pelayanan', 'lebih cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[('aplikasi sangat', 'sangat membantu , sebelumnya', 'POS')]</t>
+          <t>[('aplikasi', 'sangat membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus . . bermanfaat', 'POS'), ('aplikasi bagus', 'bermanfaat buat', 'POS'), ('info pajak kendaraan . . . [SEP]', 'bermanfaat buat', 'POS')]</t>
+          <t>[('aplikasi', 'bagus', 'POS'), ('aplikasi', 'bermanfaat buat', 'POS')]</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[('aplikasi gagal', 'gagal mending', 'NEG'), ('login malah', 'gabisa , bikin', 'NEG')]</t>
+          <t>[('login', 'gabisa', 'NEG'), ('aplikasi', 'gagal mending', 'NEG')]</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[('buka , gak', 'tidak bisa di', 'NEG')]</t>
+          <t>[('buka', 'tidak bisa di', 'NEG'), ('manfaatnya', 'gak ada manfaatnya', 'NEG')]</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[('dicek . [SEP]', 'tidak bisa dicek', 'NEG')]</t>
+          <t>[('dicek', 'tidak bisa dicek', 'NEG')]</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[('aplikasi kebanyakan', 'kebanyakan promosi . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'kebanyakan promosi', 'NEG')]</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[('aplikasi ga', 'ga berguna , niatnya', 'NEG'), ('aplikasi ga', 'ga bisa di akses . [SEP]', 'NEG'), ('bayar pajak lewat', 'ga bisa di akses . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'ga berguna', 'NEG')]</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[('cek info motor . [SEP]', 'gbs cek', 'NEG')]</t>
+          <t>[('cek', 'gbs cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[('prosesnya cepet', 'cepet . [SEP]', 'POS')]</t>
+          <t>[('prosesnya', 'cepet', 'POS')]</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[('login huh', 'ga bisa login', 'NEG')]</t>
+          <t>[('login', 'ga bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[('ngeceknya lama', 'lama bgt nj', 'NEG')]</t>
+          <t>[('ngeceknya', 'lama bgt nj', 'NEG')]</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[('cek beberapa', 'gabisa di', 'NEG')]</t>
+          <t>[('cek', 'error gab', 'NEG'), ('cek', 'gabisa di buka lagi', 'NEG')]</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'tidak berjalan aplikasinya', 'NEG')]</t>
+          <t>[('aplikasinya', 'tidak berjalan aplikasinya', 'NEG')]</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[('daftat atau', 'susah banget buat', 'NEG')]</t>
+          <t>[('login', 'susah banget buat', 'NEG'), ('login', 'susah bangeettt -', 'NEG')]</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[('masuk sever tuk', 'tidak bisa masuk', 'NEG')]</t>
+          <t>[('sever', 'tidak bisa masuk sev', 'NEG')]</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[('update knp', 'ga bisa digunakan ya', 'NEG')]</t>
+          <t>[('koneksi', 'tidak ada koneksi', 'NEG'), ('update', 'ga bisa digunakan ya', 'NEG')]</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[('perbaharui versi', 'tidak jelas . [SEP]', 'NEG')]</t>
+          <t>[('perbaharui', 'tidak jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat buruk aplikasi', 'NEG'), ('aplikasi ini', 'nggak inovatif . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'nggak inovatif', 'NEG'), ('aplikasi', 'sangat buruk aplikasi', 'NEG'), ('aplikasi', 'kaku nggak', 'NEG')]</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[('login padahal', 'selalu gagal login', 'NEG')]</t>
+          <t>[('login', 'selalu gagal login', 'NEG')]</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[('eror gim', 'sering eror', 'NEG')]</t>
+          <t>[('eror', 'sering eror', 'NEG')]</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[('masuka password jakwifi g', 'g bisa tidak', 'NEG'), ('masuka password jakwifi g', 'tidak tersambung bukan', 'NEG')]</t>
+          <t>[('jakwifi', 'g bisa tidak tersambung bukan', 'NEG')]</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'banyak yang ngeluh sama', 'NEG'), ('aplikasi ini', 'ngeluh sama', 'NEG')]</t>
+          <t>[('nyarinya', 'lelet nyari', 'NEG')]</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[('aplikasi tolol', 'tolol ! ! . [SEP]', 'NEG'), ('aplikasinya suka', 'gila kemarin', 'NEG'), ('scan ulang', 'nggak terdeteksi bpom', 'NEG')]</t>
+          <t>[('aplikasi', 'tolol', 'NEG'), ('scan', 'nggak terdeteksi bpom', 'NEG'), ('aplikasinya', 'suka gila kemarin', 'NEG')]</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[('sambara yg', 'butut . [SEP]', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('error', 'sering error', 'NEG')]</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[('loading mulu', 'mulu . [SEP]', 'NEG'), ('lapor aj', 'gabisa loading', 'NEG')]</t>
+          <t>[('lapor', 'gabisa loading', 'NEG'), ('lapor', 'loading mulu', 'NEG')]</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('versi', 'tidak berfungsi sama', 'NEG'), ('versi', 'tidak berfungsi sama sekali', 'NEG')]</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[('cek . [SEP]', 'ga bisa di', 'NEG')]</t>
+          <t>[('cek', 'ga bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[('scan kmprt . [SEP]', 'gbs di', 'NEG')]</t>
+          <t>[('scan', 'gbs di', 'NEG')]</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[('aplikasi rusak', 'rusak . . ga', 'NEG')]</t>
+          <t>[('aplikasi', 'rusak', 'NEG')]</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[('apk nya', 'tidal bisa di gunaan apk', 'NEG')]</t>
+          <t>[('apk', 'tidal bisa di gunaan apk', 'NEG')]</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[('masuk . [SEP]', 'tidak bisa masuk', 'NEG')]</t>
+          <t>[('masuk', 'tidak bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[('masuk nya', 'lama masuk', 'NEG')]</t>
+          <t>[('masuk', 'lama masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[('apk ini', 'tutup aja . kagak', 'NEG'), ('apk ini', 'susah bener mau', 'NEG')]</t>
+          <t>[('apk', 'kagak guna', 'NEG'), ('ngubah', 'susah bener', 'NEG')]</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[('cek pajak motor ya', 'ga bisa cek', 'NEG')]</t>
+          <t>[('cek', 'ga bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[('servernya jg', 'lemot . . . . . [SEP]', 'NEG')]</t>
+          <t>[('update', 'gak bisa upload dokumen', 'NEG'), ('servernya', 'lemot', 'NEG')]</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[('login ke', 'ga bisa2 ! gimana', 'NEG')]</t>
+          <t>[('login', 'ga bisa2 ! gimana', 'NEG')]</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[('laporan saya', 'bug balik', 'NEG')]</t>
+          <t>[('menu', 'nge bug balik', 'NEG')]</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[('apk nya', 'ngga jelas buat', 'NEG'), ('login aja', 'susah banget , selalu', 'NEG')]</t>
+          <t>[('login', 'susah banget', 'NEG'), ('apk', 'ngga jelas buat', 'NEG')]</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[('aplikasinya ru', 'ruwet . . masak', 'NEG'), ('login aja', 'gk bisa . . m . [SEP]', 'NEG')]</t>
+          <t>[('login', 'gk bisa', 'NEG'), ('aplikasinya', 'ruwet', 'NEG')]</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[('apk dulu', 'gak jelas apk', 'NEG'), ('apk dulu', 'gk rumit sekarang', 'NEG'), ('apk dulu', 'rumit . pd', 'NEG'), ('apk dulu', 'gk rumit sekarang rumit . pd', 'NEG')]</t>
+          <t>[('apk', 'gak jelas apk', 'NEG')]</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[('kode aktivasi ga', 'ga dikssih2 ki', 'NEG'), ('kode aktivasi ga', 'ga dikssih', 'NEG')]</t>
+          <t>[('kode', 'ga dikssih2 ki', 'NEG')]</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[('apk nga', 'nga jelas . [SEP]', 'NEG')]</t>
+          <t>[('apk', 'nga jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat membantu . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('proses', 'di persulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[('aplikasi tolol', 'tolol , gak', 'NEG'), ('aplikasi tolol', 'gak guna . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'tolol', 'NEG'), ('aplikasi', 'gak guna', 'NEG')]</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[('pelayananya ramah', 'ramah , cepat', 'POS')]</t>
+          <t>[('pelayananya', 'ramah', 'POS'), ('pelayananya', 'cepat', 'POS'), ('tempatnya', 'nyaman bgt', 'POS')]</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'error begini', 'NEG')]</t>
+          <t>[('aplikasinya', 'error begini', 'NEG')]</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'tolong diperbaiki dong', 'NEU')]</t>
+          <t>[('aplikasi', 'tolong diperbaiki dong', 'NEG'), ('submit', 'ga bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('upload', 'selalu gagal', 'NEG')]</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[('loadingnya lama', 'lama banget sama', 'NEG')]</t>
+          <t>[('loadingnya', 'lama banget sama', 'NEG')]</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('jakwifi', 'gak bisa di pakai', 'NEG')]</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('respon', 'fast respon', 'POS')]</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[('aplikasi samb', 'tidak bisa di buka /', 'NEG'), ('aplikasi samb', 'tidak bisa di akses . . [SEP]', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'bersifat rahasia , . tetapi', 'POS')]</t>
+          <t>[('identitas', 'dibocorkan identitas', 'NEG')]</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[('login karna', 'tidak bisa login', 'NEG')]</t>
+          <t>[('aplikasi', 'selalu kacau', 'NEG'), ('login', 'tidak bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[('pengoperasian ny', 'mudah cara', 'POS')]</t>
+          <t>[('cara', 'mudah cara', 'POS'), ('aksesnya', 'cepet akses', 'POS')]</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[('aplikasi blank', 'blank , tidak', 'NEG')]</t>
+          <t>[('aplikasi', 'blank', 'NEG'), ('proses', 'tidak bisa untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[('cek ya', 'gk bisa cek', 'NEG')]</t>
+          <t>[('cek', 'gk bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[('hasil vaksin saya', 'hilang di', 'NEG')]</t>
+          <t>[('hasil', 'hilang di', 'NEG')]</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('password', 'bisa di munculin soalnya', 'NEG')]</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[('aplikasina but', 'butut ki', 'NEG')]</t>
+          <t>[('aplikasina', 'butut ki', 'NEG')]</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[('ganti pin aja', 'ribet . cuma', 'NEG')]</t>
+          <t>[('ganti', 'ribet', 'NEG')]</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[('aplikasi aja', 'payahnya minta ampun . apalagi', 'NEG'), ('ngerawat aplikasi aja', 'payahnya minta ampun . apalagi', 'NEG')]</t>
+          <t>[('aplikasi', 'payahnya minta ampun', 'NEG'), ('ngerawat', 'payahnya minta ampun', 'NEG')]</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[('loading lama', 'lama mana', 'NEG')]</t>
+          <t>[('loading', 'lama mana', 'NEG'), ('scan', 'ga pernah sbntr dan', 'NEG')]</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[('aplikasi jelek', 'jelek di', 'NEG')]</t>
+          <t>[('instal', 'ga bisa mulu', 'NEG'), ('aplikasi', 'jelek di', 'NEG')]</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[('sertifikat vaksin saya', 'tidak ditemukan . [SEP]', 'NEG')]</t>
+          <t>[('data', 'hilang sehingga', 'NEG'), ('sertifikat', 'tidak ditemukan', 'NEG')]</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[('ngecek gak', 'gak bisa , muter', 'NEG'), ('ngecek gak', 'muter - muter mulu biasanya', 'NEG')]</t>
+          <t>[('ngecek', 'gak bisa', 'NEG'), ('ngecek', 'muter - muter mulu biasanya', 'NEG')]</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[('apk bodoh', 'bodoh semua', 'NEG'), ('apk nya', 'busuk hanya', 'NEG')]</t>
+          <t>[('apk', 'bodoh semua', 'NEG'), ('apk', 'busuk hanya', 'NEG')]</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[('loading terus', 'terus , kadang', 'NEG')]</t>
+          <t>[('scan', 'ga terdaftar pd', 'NEG'), ('loading', 'terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[('fitur absensi otomatis', 'tidak berjalan dih', 'NEG')]</t>
+          <t>[('fitur', 'mohon disempurnakan fitur', 'NEG')]</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[('apk tai', 'taiii minta', 'NEG')]</t>
+          <t>[('apk', 'taiii minta', 'NEG'), ('privikasi', 'gak bsa " kan', 'NEG')]</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[('aplikasi teh', 'teu jelas aplikasi', 'NEG')]</t>
+          <t>[('menu', 'teu bisa di parake', 'NEG'), ('aplikasi', 'teu jelas aplikasi', 'NEG')]</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[('aplikasi bodoh', 'bodoh , giliran', 'NEG'), ('login ga', 'ga bisa masuk', 'NEG'), ('aplikasi bod', 'bodong . [SEP]', 'NEG'), ('login akun tidak', 'tidak di temukan pas', 'NEG')]</t>
+          <t>[('aplikasi', 'bodong', 'NEG'), ('login', 'ga bisa masuk', 'NEG'), ('aplikasi', 'bodoh', 'NEG')]</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[('aplikasi sangat', 'sangat bermanfaat . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat bermanfaat', 'POS')]</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'lelet banget aplikasi', 'NEG')]</t>
+          <t>[('aplikasi', 'lelet banget aplikasi', 'NEG'), ('download', 'ga bisa di buka', 'NEG')]</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('kerahasiaannya', 'terlindungi kerahasiaan', 'NEG')]</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[('buka . [SEP]', 'sudah bisa di', 'POS')]</t>
+          <t>[('buka', 'sudah bisa di', 'POS')]</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak jelas udah', 'NEG')]</t>
+          <t>[('aplikasi', 'gak jelas udah', 'NEG')]</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[('login mb', 'ruwet . [SEP]', 'NEG')]</t>
+          <t>[('login', 'mbulet ruwet', 'NEG')]</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[('pengguan aplikasi :', 'belum ada kendala dalam', 'NEG')]</t>
+          <t>[('aplikasi', 'belum ada kendala dalam', 'NEG')]</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'mempermudah dan', 'POS')]</t>
+          <t>[('ngurus', 'ribet ujung', 'NEG')]</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[('kartu vaksinnya ilang', 'ilang smua', 'NEG')]</t>
+          <t>[('kartu', 'ilang smua', 'NEG')]</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[('daftar berulang', 'kagak bisa , udah', 'NEG')]</t>
+          <t>[('daftar', 'kagak bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'lemottt aplikasinya', 'NEG')]</t>
+          <t>[('aplikasinya', 'lemottt aplikasinya', 'NEG')]</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[('aplikasi aja', 'lemot gini', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot gini', 'NEG')]</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[('daftar kode nya', 'gk mask ke', 'NEG')]</t>
+          <t>[('kode', 'gk mask ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[('apk . [SEP]', 'ribet aamat ni', 'NEG')]</t>
+          <t>[('apk', 'ribet aamat ni', 'NEG')]</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sangat membantu dan', 'POS'), ('aplikasi yg', 'responny cepat . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat membantu dan', 'POS'), ('aplikasi', 'responny cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[('apk ndak', 'whaatssss . [SEP]', 'NEG')]</t>
+          <t>[('apk', 'ndak bisa terbuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasinya', 'buat apa dikembangkan', 'NEG')]</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[('aplikasi bisa', 'bisa untuk semua layanan . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'bisa untuk semua layanan', 'POS')]</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[('aplikasi ! lama', 'kacau ini', 'NEG')]</t>
+          <t>[('aplikasi', 'kacau ini', 'NEG'), ('cek', 'ga bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'benerin atuh', 'NEG'), ('aplikasinya . [SEP]', 'error teruss , bener', 'NEG')]</t>
+          <t>[('aplikasinya', 'error teruss', 'NEG')]</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[('upload foto pas', 'tidak bisa upload', 'NEG')]</t>
+          <t>[('upload', 'tidak bisa upload', 'NEG')]</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[('apk lemot', 'lemot . dibuka', 'NEG'), ('sistem nya', 'mohon diperbaiki sistem', 'NEU')]</t>
+          <t>[('sistem', 'mohon diperbaiki sistem', 'NEG'), ('loading', 'lama ditunggu', 'NEG'), ('apk', 'lemot', 'NEG')]</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[('aplikasinya kok', 'gk bisa dibuka ngeb', 'NEG'), ('aplikasinya kok', 'ngeblank mohon', 'NEG')]</t>
+          <t>[('aplikasinya', 'gk bisa dibuka ngeb', 'NEG'), ('aplikasinya', 'ngeblank mohon', 'NEG')]</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[('aplikasi g', 'g guna tolol', 'NEG'), ('aplikasi g', 'tolol loading mulu wifi', 'NEG')]</t>
+          <t>[('aplikasi', 'g guna tolol', 'NEG')]</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak jelas !', 'NEG')]</t>
+          <t>[('aplikasi', 'gak jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[('data saya', 'bocor . . perihal', 'NEG')]</t>
+          <t>[('data', 'bocor', 'NEG')]</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[('aplikasi jadi', 'gak bisa digunakan . mohon', 'NEG')]</t>
+          <t>[('aplikasi', 'gak bisa digunakan', 'NEG')]</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[('daftar akun kok', 'gak bisa daftar', 'NEG')]</t>
+          <t>[('daftar', 'gak bisa daftar', 'NEG'), ('daftar', 'susah banget', 'NEG')]</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[('tanggapan . [SEP]', 'cepat memberi', 'POS')]</t>
+          <t>[('tanggapan', 'cepat memberi', 'POS')]</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[('login dengan', 'lama sekali ya', 'NEG')]</t>
+          <t>[('login', 'kenap lama sekali ya', 'NEG')]</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'sangat berguna . ga', 'POS')]</t>
+          <t>[('aplikasi', 'sangat berguna', 'POS')]</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'sangat membantu sekali . . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat membantu sekali', 'POS')]</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak bikin mudah bikin', 'NEG')]</t>
+          <t>[('aplikasi', 'bikin susah ja', 'NEG')]</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[('aplikasi masih', 'banyak kekurangan , mohon', 'NEG')]</t>
+          <t>[('aplikasi', 'muter lama tanpa', 'NEG'), ('aplikasi', 'banyak kekurangan', 'NEG'), ('cek', 'muter lama tanpa', 'NEG')]</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[('aplikasi terl', 'terlelet lemot', 'NEG'), ('aplikasi terl', 'loading terus . . [SEP]', 'NEG')]</t>
+          <t>[('ngescan', 'muter terus', 'NEG'), ('loading', 'terus', 'NEG'), ('aplikasi', 'lemot bikin', 'NEG')]</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[('scan barcode ny', 'gx fungsi lg', 'NEG')]</t>
+          <t>[('scan', 'gx fungsi lg', 'NEG'), ('scan', 'gx fungsi lg', 'NEG'), ('hasil', 'gx muncul', 'NEG'), ('aplikasi', 'tlg dong perbaiki aplikasi', 'NEG')]</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[('aplikasinya yang', 'eror . [SEP]', 'NEG')]</t>
+          <t>[('aplikasinya', 'eror', 'NEG')]</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[('loadingnya keba', 'kebangetan . [SEP]', 'NEG')]</t>
+          <t>[('loadingnya', 'kebangetan', 'NEG')]</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[('aplikasi cctv di', 'tolong ditingkatkan lagi . [SEP]', 'NEU')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[('update , gak', 'gak bisa di buka (', 'NEG')]</t>
+          <t>[('update', 'gak bisa di buka (', 'NEG')]</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[('login . [SEP]', 'ga bisa login', 'NEG')]</t>
+          <t>[('login', 'ga bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[('membuat laporan . tetapi', 'request rejected your', 'NEG'), ('membuat laporan . tetapi', 'gagal dengan', 'NEG')]</t>
+          <t>[('membuat', 'request rejected your', 'NEG'), ('membuat', 'gagal dengan', 'NEG')]</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus banget kalo', 'POS')]</t>
+          <t>[('aplikasi', 'bagus banget kalo', 'POS')]</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak bisa digunakan , bagaimana', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa digunakan', 'NEG')]</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[('app makin', 'gak makin mempermudah saat', 'NEG')]</t>
+          <t>[('app', 'gak makin mempermudah saat', 'NEG')]</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[('dipake . [SEP]', 'gak bisa dipake', 'NEG')]</t>
+          <t>[('dipake', 'gak bisa dipake', 'NEG')]</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[('servernya error', 'error melulu', 'NEG')]</t>
+          <t>[('servernya', 'error melulu', 'NEG')]</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('kualitas', 'bisa lebih ditingkatkan kualitas', 'NEG')]</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'keren abis', 'POS')]</t>
+          <t>[('aplikasi', 'keren abis', 'POS')]</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[('aplikasi tdk', 'tdk bisa di buka . . untuk', 'NEG')]</t>
+          <t>[('aplikasi', 'tdk bisa di buka', 'NEG')]</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[('download lgi', 'lama banget si', 'NEG')]</t>
+          <t>[('download', 'lama banget si', 'NEG')]</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[('upload identitas gak', 'gak bisa terus', 'NEG')]</t>
+          <t>[('masuk', 'gak bisa padahal', 'NEG'), ('upload', 'gak bisa terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[('respon lama', 'lama , ribet', 'NEG'), ('responnya lama', 'lama banget . [SEP]', 'NEG')]</t>
+          <t>[('responnya', 'lama banget', 'NEG'), ('respon', 'ribet mau', 'NEG'), ('respon', 'lama', 'NEG')]</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[('applikasi jak', 'tidak bisa dibuka , lebih', 'NEG')]</t>
+          <t>[('applikasi', 'tidak bisa dibuka', 'NEG'), ('dibuka', 'gak bisa dibuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[('apl tidak', 'tidak bisa dipakai mau', 'NEG'), ('ngecek pajak tidak', 'tidak bisa katanya', 'NEG'), ('aplikasi nya', 'gk bisa membantu . [SEP]', 'NEG'), ('server knp', 'tidak masuk ke', 'NEG')]</t>
+          <t>[('aplikasi', 'jelek gk', 'NEG'), ('aplikasi', 'gk bisa membantu', 'NEG'), ('server', 'tidak masuk ke', 'NEG'), ('apl', 'tidak bisa dipakai mau', 'NEG'), ('ngecek', 'tidak bisa katanya', 'NEG')]</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[('aplikasi punya', 'abal abal . [SEP]', 'NEG'), ('tindak lanjut abal', 'abal abal . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'abal abal', 'NEG')]</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[('apk buatan', 'kaga ada yang urus , di', 'NEG')]</t>
+          <t>[('apk', 'kaga ada yang urus', 'NEG')]</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'ga bisa di lihat dari', 'NEG')]</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sangat lengkap &amp;', 'POS'), ('aplikasi yg', 'mudah digunakan oleh', 'POS')]</t>
+          <t>[('aplikasi', 'sangat lengkap &amp;', 'POS'), ('aplikasi', 'mudah digunakan oleh', 'POS')]</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[('download sertifikat vaksin aja', 'gatau gimna , jdi', 'NEG'), ('apknya . [SEP]', 'gatau gimna , jdi', 'NEG'), ('apknya . [SEP]', 'susah skrng', 'NEG')]</t>
+          <t>[('apknya', 'susah skrng', 'NEG'), ('download', 'gatau gimna', 'NEG')]</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[('loadingnya ya', 'lama bgt ini', 'NEG')]</t>
+          <t>[('loadingnya', 'lama bgt ini', 'NEG')]</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[('admin fast', 'fast respon sehingga', 'POS')]</t>
+          <t>[('admin', 'fast respon sehingga', 'POS'), ('admin', 'memudahkan pelayanan', 'POS')]</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[('ngecek gap', 'gapernah bisa . [SEP]', 'NEG')]</t>
+          <t>[('ngecek', 'gapernah bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[('login , lebih', 'selalu ada kendala setiap', 'NEU')]</t>
+          <t>[('login', 'selalu ada kendala setiap', 'NEG')]</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('informasi', 'bocor ya', 'NEG')]</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[('app . . . . [SEP]', 'good app', 'POS')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[('landscape . [SEP]', 'ga bisa baca land', 'NEG')]</t>
+          <t>[('baca', 'ga bisa baca', 'NEG')]</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[('masuk akun . [SEP]', 'tidak bisa masuk', 'NEG')]</t>
+          <t>[('masuk', 'tidak bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>[('upgrade atau', 'atau di perbaiki lagi . [SEP]', 'NEU')]</t>
+          <t>[('aplikasi', 'amat sangat lemot', 'NEU'), ('aplikasi', 'di perbaiki lagi', 'NEU')]</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[('aplikasinya di', 'jelek bgt aplikasinya', 'NEG'), ('log in padahal', 'gk bisa log', 'NEG'), ('help desk keterangan sedang', 'gangguan , aplikasi', 'NEG')]</t>
+          <t>[('aplikasi', 'gangguan', 'NEG'), ('aplikasinya', 'jelek bgt aplikasinya', 'NEG'), ('log', 'gk bisa log', 'NEG')]</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[('mengurus dokumen atau', 'lebih mudah . . . . . [SEP]', 'POS')]</t>
+          <t>[('mengurus', 'lebih mudah', 'POS')]</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'sangat membantu warga', 'POS')]</t>
+          <t>[('aplikasi', 'sangat membantu warga', 'POS')]</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'ga berguna ga', 'NEG'), ('aplikasi nya', 'ga bisa di pakai ga', 'NEG')]</t>
+          <t>[('aplikasi', 'ga berguna ga', 'NEG'), ('aplikasi', 'ga bisa di pakai ga', 'NEG')]</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[('pelayanan sangat', 'sangat memuaskan , so', 'POS')]</t>
+          <t>[('pelayanan', 'sangat memuaskan', 'POS')]</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[('app nya', 'close sendiri app', 'NEG')]</t>
+          <t>[('app', 'close sendiri app', 'NEG')]</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[('dipake lagi', 'ga bisa dipake', 'NEG')]</t>
+          <t>[('dipake', 'ga bisa dipake', 'NEG')]</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[('pelayanan sangat', 'sangat baik , segala', 'POS')]</t>
+          <t>[('pelayanan', 'sangat baik', 'POS')]</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[('bookmark nya', 'nggak berfungsi apa', 'NEG')]</t>
+          <t>[('bookmark', 'nggak berfungsi apa', 'NEG')]</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[('aplikasi terbaik', 'terbaik milik', 'POS'), ('responnya yang', 'cepat . good', 'POS')]</t>
+          <t>[('responnya', 'cepat', 'POS'), ('aplikasi', 'terbaik milik', 'POS')]</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[('pelayanan tidak', 'tidak memuaskan malah', 'NEG'), ('pelayanan tidak', 'makin lama . [SEP]', 'NEG')]</t>
+          <t>[('pelayanan', 'tidak memuaskan malah', 'NEG')]</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak berguna ! tinggal', 'NEG'), ('verifikasi tapi', 'gak masuk2 . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak berguna', 'NEG')]</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[('boking lapangan', 'susah . [SEP]', 'NEG')]</t>
+          <t>[('boking', 'susah', 'NEG')]</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[('daftar baru', 'error trus', 'NEG'), ('login , error', 'gk bisa login', 'NEG')]</t>
+          <t>[('daftar', 'error trus', 'NEG'), ('login', 'error teruss', 'NEG'), ('login', 'gk bisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>[('klik submit . [SEP]', 'tidak bisa klik', 'NEG')]</t>
+          <t>[('bug', 'terlalu sering bug', 'NEG'), ('submit', 'tidak bisa klik', 'NEG')]</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>[('aplikasi luar', 'luar biasa , untuk', 'POS')]</t>
+          <t>[('aplikasi', 'luar biasa', 'POS')]</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>[('koneksi . padahal', 'gagal terhubung koneksi', 'NEG')]</t>
+          <t>[('login', 'nggak mau login', 'NEG'), ('koneksi', 'gagal terhubung koneksi', 'NEG')]</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>[('loading mulu', 'mulu had', 'NEG')]</t>
+          <t>[('loading', 'mulu had', 'NEG')]</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'gak bisa cek pajak lagi', 'NEG'), ('cek', 'gak bisa cek', 'NEG'), ('aplikasi', 'sangat membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>[('di buka . [SEP]', 'tidak bisa di', 'NEG')]</t>
+          <t>[('buka', 'tidak bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>[('aplikasi js', 'sangat bermanfaat sekali', 'POS')]</t>
+          <t>[('aplikasi', 'sangat bermanfaat sekali aplikasi', 'POS'), ('aplikasi', 'ditambah fiturnya', 'NEU')]</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>[('cctv ga', 'ga bisa dibuka . padahal', 'NEG')]</t>
+          <t>[('cctv', 'ga bisa dibuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>[('sertifikat tidak', 'tidak dapat diunduh " , gaj', 'NEG'), ('mendownload sertifikat vaksin selalu', 'tidak dapat mendownload', 'NEG')]</t>
+          <t>[('mendownload', 'tidak dapat mendownload', 'NEG')]</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>[('qr muter', 'muter aja ni', 'NEG')]</t>
+          <t>[('qr', 'muter aja', 'NEG')]</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>[('loadingnya lama', 'lama bgt ga', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>[('tim it diper', 'diperpaiki lagi aplikasinya . [SEP]', 'NEG'), ('diupgrade malah', 'nggak ada isinya , desktop', 'NEG')]</t>
+          <t>[('diupgrade', 'nggak ada isinya', 'NEG')]</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>[('loading terus', 'terus . yang', 'NEG')]</t>
+          <t>[('loading', 'terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>[('survei ga', 'ga bisa2 . [SEP]', 'NEG'), ('eror terus', 'terus ? mau', 'NEG')]</t>
+          <t>[('survei', 'ga bisa2', 'NEG'), ('mwnjawab', 'ga bisa2', 'NEG')]</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('updating', 'cannot send reports', 'NEG'), ('updating', 'has problems and', 'NEG')]</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>[('login juga', 'gabisa login', 'NEG')]</t>
+          <t>[('server', 'tidak dapat terkoneksi ke', 'NEG'), ('login', 'gabisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>[('datanya gak', 'gak muncul trus', 'NEG'), ('cek datanya gak', 'gak muncul trus', 'NEG')]</t>
+          <t>[('cek', 'gak muncul trus', 'NEG')]</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>[('server . segera', 'tidak dapat terkoneksi ke', 'NEG')]</t>
+          <t>[('server', 'tidak dapat terkoneksi ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>[('komentar apa', 'g bisa komentar', 'NEG')]</t>
+          <t>[('komentar', 'g bisa komentar', 'NEG')]</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>[('menuhin memory hp aja', 'gak guna lagi', 'NEG')]</t>
+          <t>[('apk', 'menuhin memory hp aja', 'NEG')]</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>[('pelayanan sangat', 'sangat baik dan', 'POS'), ('pelayanan sangat', 'cepat . terima', 'POS'), ('pelayanan sangat', 'cepat . terima kasih . [SEP]', 'POS')]</t>
+          <t>[('pelayanan', 'cepat', 'POS'), ('pelayanan', 'sangat baik dan', 'POS')]</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('server', 'busuk', 'NEG'), ('server', 'ngak bisa koneksi ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>[('unduh sertifikasi selalu', 'selalu gagal , makin', 'NEG'), ('unduh sertifikasi selalu', 'gajels nih', 'NEG')]</t>
+          <t>[('apk', 'gajels nih', 'NEG'), ('unduh', 'selalu gagal', 'NEG')]</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>[('scan produk cepet', 'lama bgt . semoga', 'NEG'), ('scan produk cepet', 'cepet tapi', 'POS')]</t>
+          <t>[('scan', 'muter - muter lama', 'NEG')]</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>[('loadingnya lama', 'lama bgt , klo', 'NEG')]</t>
+          <t>[('loadingnya', 'lama bgt', 'NEG')]</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>[('aplikasi bpom', 'lemot sekali , tidak', 'NEG')]</t>
+          <t>[('ngecek', 'tidak bisa ngec', 'NEG'), ('aplikasi', 'lemot sekali', 'NEG')]</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>[('login . . . gak', 'sulitnya mau', 'NEG')]</t>
+          <t>[('login', 'sulitnya mau', 'NEG')]</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>[('login dipers', 'dipersulit . ada', 'NEG')]</t>
+          <t>[('login', 'dipersulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>[('ngecek . [SEP]', 'gak bisa trus', 'NEG')]</t>
+          <t>[('ngecek', 'gak bisa trus', 'NEG')]</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>[('pelayanannya sangat', 'sangat memuaskan . . [SEP]', 'POS')]</t>
+          <t>[('pelayanannya', 'sangat memuaskan', 'POS')]</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>[('aplikasinya , masa', 'ga jelas aplikasinya', 'NEG'), ('cek info pkb . [SEP]', 'ga bisa cek', 'NEG')]</t>
+          <t>[('aplikasinya', 'ga jelas aplikasinya', 'NEG'), ('cek', 'ga bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>[('aplikasi bagus', 'bagus untuk', 'POS')]</t>
+          <t>[('respon', 'tidak gerak cepat', 'NEG'), ('aplikasi', 'bagus untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>[('aplikasi sip', 'cepat . [SEP]', 'POS'), ('aplikasi sip', 'mudah dan', 'POS')]</t>
+          <t>[('aplikasi', 'mudah dan', 'POS'), ('aplikasi', 'cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>[('bug nya', 'masih banyak bug', 'NEG')]</t>
+          <t>[('bug', 'masih banyak bug', 'NEG')]</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>[('login di', 'selalu bermasalah , slalu', 'NEG')]</t>
+          <t>[('login', 'bermasalah', 'NEG')]</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>[('masuknya gk', 'gk bsa " . . [SEP]', 'NEG')]</t>
+          <t>[('masuknya', 'gk bsa "', 'NEG')]</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>[('sistem pelayanan pegawai maupun', 'mempermudah sistem', 'POS')]</t>
+          <t>[('sistem', 'mempermudah sistem', 'POS')]</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>[('aplikasi ga', 'ga jelas , setiap', 'NEG')]</t>
+          <t>[('aplikasi', 'ga jelas', 'NEG')]</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>[('aplikasi macam', 'gak bisa dipake sama', 'NEG')]</t>
+          <t>[('aplikasi', 'gak bisa dipake sama', 'NEG')]</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>[('login gk', 'gk bs tulisan', 'NEG')]</t>
+          <t>[('login', 'gk bs tulisan', 'NEG')]</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>[('aplikasi ini', 'tidak berguna . seharusnya', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak berguna', 'NEG')]</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>[('reset password fast', 'fast respon bgt , makasih', 'POS')]</t>
+          <t>[('reset', 'fast respon bgt', 'POS')]</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>[('mengurus penambahan kk , terima', 'mudah utk', 'POS')]</t>
+          <t>[('mengurus', 'mudah utk', 'POS')]</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>[('cek pkb gagal', 'gagal terus ! . [SEP]', 'NEG')]</t>
+          <t>[('cek', 'gagal terus', 'NEG'), ('cek', 'ga guna cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'kurang bagus karena', 'NEG'), ('aplikasi nya', 'tidak bisa pakai wifi . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak bisa pakai wifi', 'NEG'), ('aplikasi', 'kurang bagus karena', 'NEG')]</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('nomor', 'tidak bisa di masukan', 'NEG')]</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>[('ganti email sm nomor telepon . . [SEP]', 'gabisa ganti', 'NEG')]</t>
+          <t>[('ganti', 'gabisa ganti', 'NEG')]</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('apl', 'sangat " membantu', 'POS')]</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('komplain', 'tdk ad respon', 'NEG')]</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>[('scan qr code ya', 'tidak bisa scan', 'NEG')]</t>
+          <t>[('scan', 'tidak bisa scan', 'NEG')]</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>[('aplikasi karna', 'stuck di', 'NEG')]</t>
+          <t>[('bug', 'meresahkan', 'NEG'), ('aplikasi', 'tidak bisa masuk ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>[('daftar vaksin', 'susah . diberi', 'NEG')]</t>
+          <t>[('daftar', 'susah', 'NEG')]</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>[('loding masuk', 'ga berhasil . [SEP]', 'NEG'), ('masuk ga', 'ga berhasil . [SEP]', 'NEG')]</t>
+          <t>[('masuk', 'ga berhasil', 'NEG')]</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('chek', 'ga bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasi', 'memudahkan kinerja', 'POS')]</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>[('cek pajak kendaraan , selalu', 'tidak bisa cek', 'NEG'), ('cek pajak kendaraan , selalu', 'eror dan', 'NEG')]</t>
+          <t>[('cek', 'tidak bisa cek', 'NEG'), ('cek', 'eror terus', 'NEG'), ('cek', 'selalu eror dan', 'NEG')]</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak bisa digunakan , mau', 'NEG')]</t>
+          <t>[('plat', 'tidak terdeteksi', 'NEG'), ('aplikasi', 'gak bisa digunakan', 'NEG')]</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>[('aplikasi kebanyakan', 'erornya gaj', 'NEG'), ('sistem nya', 'tidak mendukung , tolong', 'NEG')]</t>
+          <t>[('aplikasi', 'gajelas', 'NEG'), ('aplikasi', 'erornya gaj', 'NEG')]</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>[('cek pajak gak', 'gak bisa bisa . [SEP]', 'NEG')]</t>
+          <t>[('cek', 'gak bisa bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'sangat bagus aplikasi', 'POS'), ('responnya . . . [SEP]', 'sangat cepat respon', 'POS')]</t>
+          <t>[('responnya', 'sangat cepat respon', 'POS'), ('aplikasi', 'sangat bagus aplikasi', 'POS')]</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>[('admin ny', 'fast respon admin', 'POS')]</t>
+          <t>[('admin', 'fast respon admin', 'POS')]</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'sangat bermanfaat utk', 'POS')]</t>
+          <t>[('aplikasi', 'sangat bermanfaat utk', 'POS')]</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>[('cek pkb . [SEP]', 'gak bisa cek', 'NEG')]</t>
+          <t>[('cek', 'gak bisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>[('aplikasi buruk', 'buruk tidak', 'NEG'), ('aplikasi buruk', 'tidak berguna sudah', 'NEG')]</t>
+          <t>[('chek', 'tidak bisa che', 'NEG'), ('aplikasi', 'tidak berguna sudah', 'NEG'), ('aplikasi', 'buruk tidak', 'NEG')]</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>[('download sertifikat , gag', 'gabisa download', 'NEG'), ('download sertifikat , gag', 'gaguna , kembalikan', 'NEG')]</t>
+          <t>[('download', 'gaguna', 'NEG'), ('download', 'gabisa download', 'NEG')]</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>[('aplikasi lemot', 'lemot sulit', 'NEG')]</t>
+          <t>[('aplikasi', 'lemot sulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>[('aplikasi bap', 'bapuk . apa', 'NEG'), ('login aja', 'gagal trus', 'NEG')]</t>
+          <t>[('aplikasi', 'bapuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>[('klik login . [SEP]', 'ga bisa klik', 'NEG')]</t>
+          <t>[('login', 'ga bisa klik', 'NEG')]</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>[('masuk aja', 'susah , apa', 'NEG')]</t>
+          <t>[('login', 'susah', 'NEG'), ('masuk', 'susah', 'NEG')]</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('scan', 'lama', 'NEG')]</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('masuk', 'ga bisa buat', 'NEG'), ('email', 'hilang email', 'NEG'), ('nomor', 'hilang nomor', 'NEG')]</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('daftar', 'tdk bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('sinyal', 'selalu gagal tersambung', 'NEG'), ('sinyal', 'selalu gagal tersambung', 'NEG'), ('aplikasi', 'cacat', 'NEG')]</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>[('aplikasi nya', 'bagus aplikasi', 'POS')]</t>
+          <t>[('aplikasi', 'rekomend', 'POS'), ('aplikasi', 'bagus aplikasi', 'POS')]</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>[('masuk ? selalu', 'gak bisa masuk', 'NEG')]</t>
+          <t>[('masuk', 'gak bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>[('login . [SEP]', 'gabisa login', 'NEG')]</t>
+          <t>[('login', 'gabisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>[('aplikasinya . [SEP]', 'mudah aplikasinya', 'POS')]</t>
+          <t>[('aplikasinya', 'mudah aplikasinya', 'POS')]</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>[('layanannya baik', 'baik dan', 'POS'), ('layanannya baik', 'cepat . . [SEP]', 'POS')]</t>
+          <t>[('layanannya', 'cepat', 'POS'), ('layanannya', 'baik dan', 'POS')]</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>[('apk pinj', 'lama . [SEP]', 'NEG'), ('apk pinj', 'pinjol nih', 'NEG')]</t>
+          <t>[('verif', 'gagal ver', 'NEG')]</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('aplikasinya', 'gk bisa di buka gim', 'NEG')]</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>[('verifikasinya susah', 'susah gagal', 'NEG'), ('verifikasinya susah', 'gagal terus . [SEP]', 'NEG')]</t>
+          <t>[('verifikasinya', 'gagal terus', 'NEG'), ('verifikasinya', 'susah gagal', 'NEG')]</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>[('ngecek pajak kendaraan . [SEP]', 'ga bisa ngec', 'NEG')]</t>
+          <t>[('ngecek', 'ga bisa ngec', 'NEG')]</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>[('pelayanan cepat', 'cepat . . . [SEP]', 'POS')]</t>
+          <t>[('pelayanan', 'cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>[('aplikasinya gk', 'gk bisa di pake cm', 'NEG'), ('aplikasinya gk', 'muter2 doang . [SEP]', 'NEG')]</t>
+          <t>[('aplikasinya', 'gk bisa di pake cm', 'NEG')]</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>[('cek info pkn', 'gak bisa pakai', 'NEG'), ('cek info pkn', 'tidak transparan lagi', 'NEG')]</t>
+          <t>[('cek', 'gak bisa pakai', 'NEG')]</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>[('cek pajak kendara an mohon', 'ga bisa di gunakan untuk', 'NEG')]</t>
+          <t>[('cek', 'ga bisa di gunakan untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>[('cek tnkb . . [SEP]', 'gabisa cek', 'NEG')]</t>
+          <t>[('cek', 'gabisa cek', 'NEG')]</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>[('apk nya', 'problem . . [SEP]', 'NEG')]</t>
+          <t>[('apk', 'zero problem', 'NEG')]</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>[('masuk mes', 'ga bisa masuk', 'NEG')]</t>
+          <t>[('masuk', 'ga bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>[('masuk keterangannya', 'ga bisa masuk', 'NEG'), ('masuk keterangannya', 'tidak ada akses internet , padahal', 'NEG')]</t>
+          <t>[('internet', 'tidak ada akses internet', 'NEG'), ('masuk', 'ga bisa masuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>[('server . [SEP]', 'tidak konek ke', 'NEG')]</t>
+          <t>[('server', 'tidak konek ke', 'NEG')]</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'bagus dan', 'POS'), ('aplikasi yang', 'sangat membantu dalam', 'POS'), ('pelayanan . [SEP]', 'sangat membantu dalam', 'POS')]</t>
+          <t>[('aplikasi', 'bagus dan', 'POS'), ('aplikasi', 'sangat membantu dalam', 'POS')]</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>[('aplikasi buruk', 'buruk sdh', 'NEG'), ('aplikasinya agar', 'tdk menyusahkan masyarakat . [SEP]', 'NEG')]</t>
+          <t>[('aplikasi', 'ndak bisa kelola aplikasi', 'NEG'), ('aplikasi', 'buruk sdh', 'NEG'), ('aplikasinya', 'menyusahkan masyarakat', 'NEG')]</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>[('aplikasi dibuka', 'blank , apa', 'NEG')]</t>
+          <t>[('aplikasi', 'blank', 'NEG')]</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>[('daftar apa', 'ribet banget . . [SEP]', 'NEG'), ('daftar akun bla', 'gampang daftar', 'POS'), ('pendaftaran sung', 'ribet lb', 'NEG')]</t>
+          <t>[('pendaftaran', 'sunggu ribet lb', 'NEG')]</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>[('buku terbitan miz', 'gak bisa dibuka , udah', 'NEG')]</t>
+          <t>[('dibuka', 'gak bisa dibuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>[('ngecek atau', 'gak bisa ngec', 'NEG')]</t>
+          <t>[('tampilan', 'beda jadi', 'NEG')]</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>[('vaksin saya', 'tidak ada ? . [SEP]', 'NEG')]</t>
+          <t>[('setifikat', 'tidak ada', 'NEG')]</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'sgt bermanfaat bagi', 'POS')]</t>
+          <t>[('aplikasi', 'sgt bermanfaat bagi', 'POS')]</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>[('aplikasi yang', 'sangat keren . [SEP]', 'POS')]</t>
+          <t>[('aplikasi', 'sangat keren', 'POS')]</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>[('buka aplikasi ini', 'gak bisa ya', 'NEG'), ('aplikasi ini', 'gak bisa ya', 'NEG')]</t>
+          <t>[('buka', 'gak bisa ya', 'NEG'), ('buka', 'blank putih', 'NEG')]</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>[('aplikasi gak', 'gak guna . ind', 'NEG'), ('aplikasi gak', 'bapuk . . [SEP]', 'NEG')]</t>
+          <t>[('indefikasi', 'memerlukan waktu yg lama', 'NEG'), ('aplikasi', 'gak guna', 'NEG')]</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>[('lapor tapi', 'tidak bisa klik simpan', 'NEG')]</t>
+          <t>[('klik', 'tidak bisa klik', 'NEG'), ('klik', 'tidak bisa klik', 'NEG')]</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>[('respon cepat', 'cepat . [SEP]', 'POS')]</t>
+          <t>[('pelayanan', 'suiippp', 'NEG'), ('respon', 'cepat', 'POS')]</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>[('laporan . . . [SEP]', 'ga bs laporan', 'NEG')]</t>
+          <t>[('laporan', 'ga bs laporan', 'NEG')]</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>[('cek pajak gab', 'gabisa , karna', 'NEG')]</t>
+          <t>[('cek', 'gabisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('unggah', 'ga bisa i', 'NEG')]</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>[('posting laporan gagal', 'gagal terus , karena', 'NEG')]</t>
+          <t>[('captcha', 'salah terus', 'NEG'), ('posting', 'gagal terus', 'NEG')]</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>[('up date jadi', 'tidak bisa di akses . [SEP]', 'NEG')]</t>
+          <t>[('up', 'tidak bisa di akses', 'NEG')]</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>[('fitur pendaftaran vaksin covid - 19 belum', 'belum bisa ya', 'NEG')]</t>
+          <t>[('fitur', 'belum bisa ya', 'NEG')]</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>[('instal . . dicoba', 'tidak bisa di', 'NEG')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('trouble', 'sering tro', 'NEG')]</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>[('akun ga', 'ga jelas yg', 'NEG'), ('akun ga', 'ga ada manfaatnya sama', 'NEG')]</t>
+          <t>[('akun', 'ga ada manfaatnya sama', 'NEG'), ('akun', 'ga jelas yg', 'NEG')]</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>[('petugasnya sangat', 'sangat ramah dan', 'POS')]</t>
+          <t>[('petugasnya', 'sangat ramah dan', 'POS')]</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('dokumenya', 'gk bisa kebuka', 'NEG')]</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>[('server down', 'down . [SEP]', 'NEG'), ('login , server', 'gabisa login', 'NEG')]</t>
+          <t>[('server', 'down', 'NEG'), ('login', 'gabisa login', 'NEG')]</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>[('eror . [SEP]', 'sering terjadi eror', 'NEG')]</t>
+          <t>[('eror', 'sering terjadi eror', 'NEG')]</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>[('aplikasinya jadi', 'tidak bisa kirim laporan , aplikasinya', 'NEG')]</t>
+          <t>[('kirim', 'tidak bisa kirim', 'NEG'), ('aplikasinya', 'tidak berguna untuk', 'NEG')]</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('update', 'di benarkan lagi', 'NEU')]</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>[('aplikasinya had', 'lemot sye', 'NEG')]</t>
+          <t>[('aplikasinya', 'lemot sye', 'NEG')]</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>[('scan kok', 'gak terdaftar . pas', 'NEG')]</t>
+          <t>[('scan', 'gak terdaftar', 'NEG')]</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>[('jakwifi yang', 'buruk . [SEP]', 'NEG')]</t>
+          <t>[('jakwifi', 'buruk', 'NEG')]</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>[('cek . [SEP]', 'gak bisa di', 'NEG')]</t>
+          <t>[('cek', 'gak bisa di', 'NEG')]</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>[('aplikasi yg', 'ga bisa digunakan , trus', 'NEG'), ('pindah kependudukan aja', 'susah minta', 'NEG'), ('digunakan sama', 'ga bisa digunakan', 'NEG')]</t>
+          <t>[('aplikasi', 'ga bisa digunakan', 'NEG')]</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>[('proses nya', 'lama sekali masukan', 'NEG')]</t>
+          <t>[('proses', 'lama sekali masukan', 'NEG')]</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>[('lihat pajek bangunan gak', 'gak bisa . [SEP]', 'NEG')]</t>
+          <t>[('lihat', 'gak bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>[('apl blm', 'banyak bugnya , harusnya', 'NEG')]</t>
+          <t>[('apl', 'banyak bugnya', 'NEG'), ('apl', 'blm sepurana', 'NEG')]</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>[('cek pajak ran', 'gak bisa buat', 'NEG')]</t>
+          <t>[('cek', 'gak bisa buat', 'NEG')]</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>[('aplikasi tidak', 'tidak dapat terhubung ke', 'NEG')]</t>
+          <t>[('aplikasi', 'tidak dapat terhubung ke server', 'NEG')]</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>[('masuk ke akun jg', 'ga bisa . . [SEP]', 'NEG')]</t>
+          <t>[('cek', 'tidak bisa dipakai cek', 'NEG'), ('masuk', 'ga bisa', 'NEG')]</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>[('kepengurusan kia ktp akta . [SEP]', 'sangat bermanfaat untuk', 'POS')]</t>
+          <t>[('kepengurusan', 'sangat bermanfaat untuk', 'POS')]</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>[('server ml', 'tidak terhubung dengan', 'NEG')]</t>
+          <t>[('server', 'tidak terhubung dengan', 'NEG')]</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>[('login dipers', 'dipersulit , saat', 'NEG'), ('hubungi cs juga', 'dipersulit tidak', 'NEG')]</t>
+          <t>[('login', 'dipersulit', 'NEG')]</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>[('layanan bisa', 'bisa lebih ditingkatkan . [SEP]', 'NEU')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('sistem', 'susah un', 'NEG')]</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>[('pinjam buku . [SEP]', 'gk bisa pinjam', 'NEG')]</t>
+          <t>[('pinjam', 'bug', 'NEG'), ('pinjam', 'gk bisa pinjam', 'NEG')]</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>[('ngecek pajak susah', 'susah bngt . . . gk', 'NEG')]</t>
+          <t>[('ngecek', 'susah bngt', 'NEG')]</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('pendaftaran', 'rumit dan', 'NEG'), ('pendaftaran', 'ribet harus', 'NEG')]</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>[('service . [SEP]', 'good service', 'POS')]</t>
+          <t>[('service', 'good service', 'POS')]</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>[('ngurus dokumen susahnya', 'susahnya minta ampun . malah', 'NEG'), ('aplikasi ini', 'gak bisa juga', 'NEG'), ('aplikasi ini', 'gak bisa juga . terus gunanya buat', 'NEG')]</t>
+          <t>[('ngurus', 'susahnya minta ampun', 'NEG')]</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>[('masuk disini', 'agak sulit saya', 'NEG')]</t>
+          <t>[('masuk', 'agak sulit saya', 'NEG')]</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
